--- a/Jalen Bronson Regular Season Totals (1).xlsx
+++ b/Jalen Bronson Regular Season Totals (1).xlsx
@@ -882,7 +882,7 @@
         <v>1633</v>
       </c>
       <c r="U6" t="n">
-        <v>2212</v>
+        <v>1966.18</v>
       </c>
     </row>
     <row r="7">
@@ -948,7 +948,7 @@
         <v>100</v>
       </c>
       <c r="T7" t="n">
-        <v>1966.18</v>
+        <v>1796.564199999997</v>
       </c>
       <c r="U7" t="inlineStr"/>
     </row>
